--- a/program documents/Team Grumio Backlog Updated Deliv. 3.xlsx
+++ b/program documents/Team Grumio Backlog Updated Deliv. 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raist\Desktop\School\COS 420\Project\program documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3C1BA1-DB1B-4FDA-8F41-01375DEAC431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7EE6B6-1E72-445B-94C3-BAA558E0B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="3225" windowWidth="30645" windowHeight="17655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Sprint 5+</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:F985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -471,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
         <v>13</v>
@@ -491,13 +494,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>5</v>
@@ -511,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>8</v>
